--- a/2 - Language (Words)/[7-11] Word Scaling Analysis (linear)/Parameter Tables/Aggregate-Parameters-for_English_Scaling.xlsx
+++ b/2 - Language (Words)/[7-11] Word Scaling Analysis (linear)/Parameter Tables/Aggregate-Parameters-for_English_Scaling.xlsx
@@ -165,46 +165,46 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>34.808980262883928</v>
+        <v>25.567248046653923</v>
       </c>
       <c r="B2" s="0">
-        <v>1.8709124401501018</v>
+        <v>1.4806419411735097</v>
       </c>
       <c r="C2" s="0">
-        <v>-22.331053905785978</v>
+        <v>-18.980927807839286</v>
       </c>
       <c r="D2" s="0">
-        <v>5.2962126289236648</v>
+        <v>4.2866479985776529</v>
       </c>
       <c r="E2" s="0">
-        <v>374.9519899413923</v>
+        <v>408.93241489788585</v>
       </c>
       <c r="F2" s="0">
-        <v>9.9000011983301839</v>
+        <v>7.7851443922479158</v>
       </c>
       <c r="G2" s="0">
-        <v>590.10629874806125</v>
+        <v>569.10835277711749</v>
       </c>
       <c r="H2" s="0">
-        <v>10.103942958666257</v>
+        <v>8.6483384226111006</v>
       </c>
       <c r="I2" s="0">
-        <v>0.16139675944907481</v>
+        <v>0.058366561563422834</v>
       </c>
       <c r="J2" s="0">
-        <v>0.16139675944907481</v>
+        <v>0.058366561563422834</v>
       </c>
       <c r="K2" s="0">
-        <v>10.517488314174118</v>
+        <v>10.717531205371593</v>
       </c>
       <c r="L2" s="0">
-        <v>1.5024983305963027</v>
+        <v>1.531075886481656</v>
       </c>
       <c r="M2" s="0">
-        <v>0.99373997420055704</v>
+        <v>0.99709377031135826</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.51275605185270745</v>
+        <v>-0.54623746562753994</v>
       </c>
     </row>
   </sheetData>
